--- a/其他/datasetAttTable/VisDrone2018_att.xlsx
+++ b/其他/datasetAttTable/VisDrone2018_att.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\hyj-small-repo\v4r-matlab-plot\其他\datasetAttTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A95FD5F-8F23-4F8C-BAA2-A26AE12460DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CA29B0-9999-4788-B844-50A5A31E880E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{7E663606-6E9E-4F60-962C-EFBAE8226907}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>dataSeq</t>
   </si>
@@ -177,6 +177,10 @@
   </si>
   <si>
     <t>SV</t>
+  </si>
+  <si>
+    <t>VC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -546,7 +550,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N36" sqref="A1:N36"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -608,7 +612,7 @@
         <v>47</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2154,6 +2158,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
